--- a/Outputs/2020-10-29/Bill of Materials-clock.xlsx
+++ b/Outputs/2020-10-29/Bill of Materials-clock.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\clock\Outputs\2020-10-29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\clock\Outputs\2020-10-29\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44357F8F-0C1F-4C70-AEE9-6D32280E48CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C6C30E-F82B-418A-81F3-FD25DE3CB45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="2670" windowWidth="21825" windowHeight="13530" xr2:uid="{51DB8A13-39F8-453F-A9A6-334BCC4BC0FE}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{51DB8A13-39F8-453F-A9A6-334BCC4BC0FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-clock" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Bill of Materials-clock'!$A$1:$F$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-clock'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -656,21 +657,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E752604-7780-40F0-91F5-9392E55B34BD}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="A1:F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
@@ -1111,7 +1111,7 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="105" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>